--- a/classfiers/greedy/svm/greedy-svm-default-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-default-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9289855072463769</v>
+        <v>0.9956709956709957</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9043478260869564</v>
+        <v>0.6118326118326118</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7826086956521738</v>
+        <v>0.987012987012987</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9391304347826087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5565217391304348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8223188405797102</v>
+        <v>0.9189033189033189</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/greedy-svm-default-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-default-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9956709956709957</v>
+        <v>0.9936507936507937</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6118326118326118</v>
+        <v>0.9777777777777779</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9601275917065391</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9489633173843699</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9189033189033189</v>
+        <v>0.9741900205058098</v>
       </c>
     </row>
   </sheetData>
